--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro\OneDrive\Documentos\UiPath\RF_Loteria\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B500D383-B711-4A64-AA76-059173386819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48C626E-523E-4EAF-9DFD-5355BCFE99E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -126,13 +126,28 @@
   </si>
   <si>
     <t>ArquivoFila</t>
+  </si>
+  <si>
+    <t>LocalSalvamento</t>
+  </si>
+  <si>
+    <t>C:\Users\mauro\OneDrive\Área de Trabalho\loteria.txt</t>
+  </si>
+  <si>
+    <t>Local de Armazenagem do txt com o resultado do sorteio.</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>maurovmorais@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,6 +171,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,10 +195,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -187,8 +209,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,7 +528,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -585,9 +609,26 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1577,8 +1618,11 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{E7E172B5-CB3E-48A9-992A-DB6E233FBADC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
